--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1280 +397,1378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>31.28619552892666</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2.819590708355458</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>15.82838603837568</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>12.48400104041458</v>
+      </c>
+      <c r="F2">
         <v>13.43723774024719</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>19.60028476062941</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H2" t="n">
-        <v>83.45107559448228</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>95.93507663489687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>35.9499762288909</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.356655605185069</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>10.55225735891712</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>7.133714880236904</v>
+      </c>
+      <c r="F3">
         <v>16.85762552867374</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>30.38044137897558</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>97.09695610064239</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>104.2306709808793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>29.29437252165026</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.416792035733249</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>8.353870409142719</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>12.03814386039977</v>
+      </c>
+      <c r="F4">
         <v>13.19292432678814</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>20.09029187964514</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H4" t="n">
-        <v>73.82763199090741</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>85.86577585130718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>33.52092378099285</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.222389380977667</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>12.75064430869152</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>8.025429240266515</v>
+      </c>
+      <c r="F5">
         <v>12.82645420659959</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>14.21020645145633</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.9587616358957998</v>
       </c>
-      <c r="H5" t="n">
-        <v>77.48937976461374</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>85.51480900488026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>31.86916811642218</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.43078539884429</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10.55225735891712</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>7.579572060251713</v>
+      </c>
+      <c r="F6">
         <v>12.70429749987007</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>19.11027764161368</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H6" t="n">
-        <v>78.9064764246413</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>86.486048484893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>31.23761447996868</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.551058259940652</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>8.353870409142719</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>10.25471514034055</v>
+      </c>
+      <c r="F7">
         <v>14.29233468735383</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>17.64025628456647</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>2.15721368076555</v>
       </c>
-      <c r="H7" t="n">
-        <v>76.23234780173792</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>86.48706294207847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>30.12025035393559</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3.893720502014679</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8.793547799097603</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>8.91714360029613</v>
+      </c>
+      <c r="F8">
         <v>13.5593944469767</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>14.70021357047206</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H8" t="n">
-        <v>71.7861978994185</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>80.70334149971461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>33.76382902578266</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.148259587318444</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>17.58709559819521</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F9">
         <v>13.31508103351767</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>10.78015661834617</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H9" t="n">
-        <v>78.31349309008199</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>89.01406541043735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>41.09956741843471</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3.222389380977667</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>10.991934748872</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>9.808857960325742</v>
+      </c>
+      <c r="F10">
         <v>11.60488713930439</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>7.840113904251762</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H10" t="n">
-        <v>74.99858300081449</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>84.80744096114022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>40.1279464392755</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.9398635694518193</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>11.87128952878175</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F11">
         <v>6.107835336475994</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>4.900071190157352</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H11" t="n">
-        <v>64.42638688209031</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>76.01867356247529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>35.36700364139533</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.611194690488833</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>8.353870409142719</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F12">
         <v>4.397641442262715</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>8.330121023267498</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H12" t="n">
-        <v>58.53921202450499</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>74.1442133250232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>27.78836000395349</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.8055973452444167</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>6.595160849323197</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>12.48400104041458</v>
+      </c>
+      <c r="F13">
         <v>3.909014615344635</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>4.410064071141617</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H13" t="n">
-        <v>43.74788729398131</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>56.2318883343959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>21.81289098212432</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.208396017866625</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6.155483459368318</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>14.26742976047381</v>
+      </c>
+      <c r="F14">
         <v>2.565290841319916</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>2.940042714094412</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>34.68210401477359</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>48.9495337752474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>14.33140944259839</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.5370648968296111</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2.63806433972928</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>8.025429240266515</v>
+      </c>
+      <c r="F15">
         <v>1.832350600942798</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>3.430049833110147</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H15" t="n">
-        <v>23.00862952218417</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>31.03405876245069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.432900490567976</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.47692846628143</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3.517419119639039</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>3.566857440118452</v>
+      </c>
+      <c r="F16">
         <v>2.198820721131358</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>2.450035595078676</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>17.07610439269848</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>20.64296183281693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.101010140585869</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6713311210370138</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.8793547799097597</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>1.099410360565679</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>2.450035595078676</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>10.201141997177</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4.129389161426655</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.342662242074028</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.758709559819519</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.4458571800148065</v>
+      </c>
+      <c r="F18">
         <v>1.465880480754238</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>1.960028476062941</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H18" t="n">
-        <v>11.13605073808528</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>11.58190791810009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.283309301024152</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.758709559819519</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>1.588037187483759</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>3.430049833110147</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>9.462904554059785</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.234728252066189</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.31903216986464</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.783428720059226</v>
+      </c>
+      <c r="F20">
         <v>0.9772536538361588</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.9800142380314703</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>5.913826986420666</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>7.697255706479893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>5.829725874955279</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.758709559819519</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.891714360029613</v>
+      </c>
+      <c r="F21">
         <v>1.588037187483759</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.9800142380314703</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>10.29075308449743</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>11.18246744452704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>16.80904293945439</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.074129793659222</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>6.595160849323197</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>4.012714620133258</v>
+      </c>
+      <c r="F22">
         <v>5.130581682639833</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>7.840113904251762</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>37.4490291693284</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>41.46174378946166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>26.62241482896243</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.879727138903639</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>7.034838239278078</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F23">
         <v>9.161753004713988</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>16.17023492751926</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>1.19845204486975</v>
       </c>
-      <c r="H23" t="n">
-        <v>62.06742018424715</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>77.67242148476538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>35.0755173476476</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.208396017866625</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>10.991934748872</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>16.94257284056264</v>
+      </c>
+      <c r="F24">
         <v>10.01684995182063</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>9.800142380314703</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H24" t="n">
-        <v>67.57222126446946</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>84.5147941050321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>35.46416573931129</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.342662242074028</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>8.793547799097603</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F25">
         <v>7.573715817230232</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>14.70021357047206</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.4381424538437</v>
       </c>
-      <c r="H25" t="n">
-        <v>69.3124476220289</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>80.90473430241389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>31.28619552892666</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.819590708355458</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>15.82838603837568</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>12.48400104041458</v>
+      </c>
+      <c r="F26">
         <v>13.43723774024719</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>19.60028476062941</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H26" t="n">
-        <v>83.45107559448228</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>95.93507663489687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>27.01106322062611</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.819590708355458</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>11.43161213882688</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>7.579572060251713</v>
+      </c>
+      <c r="F27">
         <v>15.75821516810806</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>13.72019933244059</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H27" t="n">
-        <v>70.98037097733105</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>78.55994303758277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>30.65464189247318</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.893720502014679</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>11.43161213882688</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>10.25471514034055</v>
+      </c>
+      <c r="F28">
         <v>12.21567067295199</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>19.60028476062941</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H28" t="n">
-        <v>78.27531078484402</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>88.53002592518457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>27.93410315082736</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.356655605185069</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>12.31096691873664</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>7.579572060251713</v>
+      </c>
+      <c r="F29">
         <v>10.01684995182063</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>8.330121023267498</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H29" t="n">
-        <v>62.66776787675904</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>70.24733993701075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>28.22558944457513</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.013993363111041</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>10.991934748872</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>6.687857700222096</v>
+      </c>
+      <c r="F30">
         <v>12.21567067295199</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>16.17023492751926</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.9587616358957998</v>
       </c>
-      <c r="H30" t="n">
-        <v>70.5761847929252</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>77.26404249314731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>28.32275154249108</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.685324484148055</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>14.06967647855616</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>7.133714880236904</v>
+      </c>
+      <c r="F31">
         <v>14.29233468735383</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>10.29014949933044</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H31" t="n">
-        <v>70.13961750982745</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>77.27333239006435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>29.63443986435598</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.088123156770264</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10.991934748872</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>9.363000780310934</v>
+      </c>
+      <c r="F32">
         <v>14.29233468735383</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>11.27016373736191</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H32" t="n">
-        <v>69.99606742163583</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>79.35906820194677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>33.76382902578266</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.148259587318444</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>17.58709559819521</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F33">
         <v>13.31508103351767</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>10.78015661834617</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H33" t="n">
-        <v>78.31349309008199</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>89.01406541043735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>41.09956741843471</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.222389380977667</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>10.991934748872</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>9.808857960325742</v>
+      </c>
+      <c r="F34">
         <v>11.60488713930439</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>7.840113904251762</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H34" t="n">
-        <v>74.99858300081449</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>84.80744096114022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>40.1279464392755</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.9398635694518193</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>11.87128952878175</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F35">
         <v>6.107835336475994</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>4.900071190157352</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H35" t="n">
-        <v>64.42638688209031</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>76.01867356247529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>35.36700364139533</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.611194690488833</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>8.353870409142719</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F36">
         <v>4.397641442262715</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>8.330121023267498</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H36" t="n">
-        <v>58.53921202450499</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>74.1442133250232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>27.78836000395349</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.8055973452444167</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>6.595160849323197</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>12.48400104041458</v>
+      </c>
+      <c r="F37">
         <v>3.909014615344635</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>4.410064071141617</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H37" t="n">
-        <v>43.74788729398131</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>56.2318883343959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>21.81289098212432</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.208396017866625</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6.155483459368318</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>14.26742976047381</v>
+      </c>
+      <c r="F38">
         <v>2.565290841319916</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>2.940042714094412</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>34.68210401477359</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>48.9495337752474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>14.33140944259839</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.5370648968296111</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2.63806433972928</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>8.025429240266515</v>
+      </c>
+      <c r="F39">
         <v>1.832350600942798</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>3.430049833110147</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H39" t="n">
-        <v>23.00862952218417</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>31.03405876245069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>7.432900490567976</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.47692846628143</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>3.517419119639039</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>3.566857440118452</v>
+      </c>
+      <c r="F40">
         <v>2.198820721131358</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>2.450035595078676</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>17.07610439269848</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>20.64296183281693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.101010140585869</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.6713311210370138</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.8793547799097597</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>1.099410360565679</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>2.450035595078676</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>10.201141997177</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>4.129389161426655</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.342662242074028</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1.758709559819519</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.4458571800148065</v>
+      </c>
+      <c r="F42">
         <v>1.465880480754238</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.960028476062941</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H42" t="n">
-        <v>11.13605073808528</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>11.58190791810009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.283309301024152</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.758709559819519</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>1.588037187483759</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>3.430049833110147</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>9.462904554059785</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2.234728252066189</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1.31903216986464</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.783428720059226</v>
+      </c>
+      <c r="F44">
         <v>0.9772536538361588</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.9800142380314703</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>5.913826986420666</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>7.697255706479893</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>5.829725874955279</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.758709559819519</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.891714360029613</v>
+      </c>
+      <c r="F45">
         <v>1.588037187483759</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.9800142380314703</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>10.29075308449743</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>11.18246744452704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>16.80904293945439</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.074129793659222</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>6.595160849323197</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>4.012714620133258</v>
+      </c>
+      <c r="F46">
         <v>5.130581682639833</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>7.840113904251762</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>37.4490291693284</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>41.46174378946166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>26.62241482896243</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.879727138903639</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>7.034838239278078</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F47">
         <v>9.161753004713988</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>16.17023492751926</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>1.19845204486975</v>
       </c>
-      <c r="H47" t="n">
-        <v>62.06742018424715</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>77.67242148476538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>35.0755173476476</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.208396017866625</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>10.991934748872</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>16.94257284056264</v>
+      </c>
+      <c r="F48">
         <v>10.01684995182063</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>9.800142380314703</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H48" t="n">
-        <v>67.57222126446946</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>84.5147941050321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>35.46416573931129</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.342662242074028</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>8.793547799097603</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F49">
         <v>7.573715817230232</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>14.70021357047206</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>1.4381424538437</v>
       </c>
-      <c r="H49" t="n">
-        <v>69.3124476220289</v>
+      <c r="I49">
+        <v>80.90473430241389</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>31.28619552892666</v>
+        <v>138.6739477498371</v>
       </c>
       <c r="C2">
-        <v>2.819590708355458</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D2">
-        <v>15.82838603837568</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E2">
-        <v>12.48400104041458</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F2">
-        <v>13.43723774024719</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G2">
-        <v>19.60028476062941</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H2">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I2">
-        <v>95.93507663489687</v>
+        <v>425.2257450844078</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>35.9499762288909</v>
+        <v>159.3458405821109</v>
       </c>
       <c r="C3">
-        <v>3.356655605185069</v>
+        <v>14.87814916892841</v>
       </c>
       <c r="D3">
-        <v>10.55225735891712</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E3">
-        <v>7.133714880236904</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F3">
-        <v>16.85762552867374</v>
+        <v>74.7202861270944</v>
       </c>
       <c r="G3">
-        <v>30.38044137897558</v>
+        <v>134.6592536797837</v>
       </c>
       <c r="I3">
-        <v>104.2306709808793</v>
+        <v>461.9954065098433</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>29.29437252165026</v>
+        <v>129.8453268527201</v>
       </c>
       <c r="C4">
-        <v>2.416792035733249</v>
+        <v>10.71226740162846</v>
       </c>
       <c r="D4">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E4">
-        <v>12.03814386039977</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F4">
-        <v>13.19292432678814</v>
+        <v>58.47674566468257</v>
       </c>
       <c r="G4">
-        <v>20.09029187964514</v>
+        <v>89.04886130437306</v>
       </c>
       <c r="H4">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I4">
-        <v>85.86577585130718</v>
+        <v>380.5942497193076</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>33.52092378099285</v>
+        <v>148.5792297319683</v>
       </c>
       <c r="C5">
-        <v>3.222389380977667</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D5">
-        <v>12.75064430869152</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E5">
-        <v>8.025429240266515</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F5">
-        <v>12.82645420659959</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G5">
-        <v>14.21020645145633</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H5">
-        <v>0.9587616358957998</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I5">
-        <v>85.51480900488026</v>
+        <v>379.0386128864962</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>31.86916811642218</v>
+        <v>141.2579343538712</v>
       </c>
       <c r="C6">
-        <v>4.43078539884429</v>
+        <v>19.6391569029855</v>
       </c>
       <c r="D6">
-        <v>10.55225735891712</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E6">
-        <v>7.579572060251713</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F6">
-        <v>12.70429749987007</v>
+        <v>56.31094026969434</v>
       </c>
       <c r="G6">
-        <v>19.11027764161368</v>
+        <v>84.7050144114768</v>
       </c>
       <c r="H6">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I6">
-        <v>86.486048484893</v>
+        <v>383.3435662573634</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>31.23761447996868</v>
+        <v>138.4586155328342</v>
       </c>
       <c r="C7">
-        <v>2.551058259940652</v>
+        <v>11.30739336838559</v>
       </c>
       <c r="D7">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E7">
-        <v>10.25471514034055</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F7">
-        <v>14.29233468735383</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G7">
-        <v>17.64025628456647</v>
+        <v>78.18924407213245</v>
       </c>
       <c r="H7">
-        <v>2.15721368076555</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I7">
-        <v>86.48706294207847</v>
+        <v>383.3480627702937</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>30.12025035393559</v>
+        <v>133.5059745417686</v>
       </c>
       <c r="C8">
-        <v>3.893720502014679</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D8">
-        <v>8.793547799097603</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E8">
-        <v>8.91714360029613</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F8">
-        <v>13.5593944469767</v>
+        <v>60.10109971092377</v>
       </c>
       <c r="G8">
-        <v>14.70021357047206</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H8">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I8">
-        <v>80.70334149971461</v>
+        <v>357.7121082690053</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>33.76382902578266</v>
+        <v>149.6558908169826</v>
       </c>
       <c r="C9">
-        <v>2.148259587318444</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D9">
-        <v>17.58709559819521</v>
+        <v>77.95361292173006</v>
       </c>
       <c r="E9">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F9">
-        <v>13.31508103351767</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G9">
-        <v>10.78015661834617</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="H9">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I9">
-        <v>89.01406541043735</v>
+        <v>394.5488304678844</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>41.09956741843471</v>
+        <v>182.1710555844133</v>
       </c>
       <c r="C10">
-        <v>3.222389380977667</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D10">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E10">
-        <v>9.808857960325742</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F10">
-        <v>11.60488713930439</v>
+        <v>51.4378781309708</v>
       </c>
       <c r="G10">
-        <v>7.840113904251762</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H10">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I10">
-        <v>84.80744096114022</v>
+        <v>375.9032518277566</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>40.1279464392755</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C11">
-        <v>0.9398635694518193</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D11">
-        <v>11.87128952878175</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E11">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F11">
-        <v>6.107835336475994</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G11">
-        <v>4.900071190157352</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H11">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I11">
-        <v>76.01867356247529</v>
+        <v>336.9476341688093</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>35.36700364139533</v>
+        <v>156.7618539780766</v>
       </c>
       <c r="C12">
-        <v>1.611194690488833</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D12">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E12">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F12">
-        <v>4.397641442262715</v>
+        <v>19.49224855489419</v>
       </c>
       <c r="G12">
-        <v>8.330121023267498</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H12">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I12">
-        <v>74.1442133250232</v>
+        <v>328.6392158190218</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>27.78836000395349</v>
+        <v>123.1700281256317</v>
       </c>
       <c r="C13">
-        <v>0.8055973452444167</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D13">
-        <v>6.595160849323197</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E13">
-        <v>12.48400104041458</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F13">
-        <v>3.909014615344635</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G13">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H13">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I13">
-        <v>56.2318883343959</v>
+        <v>249.2440455902953</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>21.81289098212432</v>
+        <v>96.68416543428079</v>
       </c>
       <c r="C14">
-        <v>1.208396017866625</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D14">
-        <v>6.155483459368318</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E14">
-        <v>14.26742976047381</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F14">
-        <v>2.565290841319916</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G14">
-        <v>2.940042714094412</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I14">
-        <v>48.9495337752474</v>
+        <v>216.9655010578533</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>14.33140944259839</v>
+        <v>63.52300401584149</v>
       </c>
       <c r="C15">
-        <v>0.5370648968296111</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D15">
-        <v>2.63806433972928</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E15">
-        <v>8.025429240266515</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F15">
-        <v>1.832350600942798</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G15">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H15">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I15">
-        <v>31.03405876245069</v>
+        <v>137.5563685687003</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>7.432900490567976</v>
+        <v>32.94582920143643</v>
       </c>
       <c r="C16">
-        <v>1.47692846628143</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D16">
-        <v>3.517419119639039</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E16">
-        <v>3.566857440118452</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F16">
-        <v>2.198820721131358</v>
+        <v>9.746124277447095</v>
       </c>
       <c r="G16">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I16">
-        <v>20.64296183281693</v>
+        <v>91.49853352924259</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.101010140585869</v>
+        <v>22.60988278529953</v>
       </c>
       <c r="C17">
-        <v>0.6713311210370138</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D17">
-        <v>0.8793547799097597</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F17">
-        <v>1.099410360565679</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G17">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I17">
-        <v>10.201141997177</v>
+        <v>45.21587263613588</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>4.129389161426655</v>
+        <v>18.30323844524247</v>
       </c>
       <c r="C18">
-        <v>1.342662242074028</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D18">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E18">
-        <v>0.4458571800148065</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F18">
-        <v>1.465880480754238</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G18">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H18">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I18">
-        <v>11.58190791810009</v>
+        <v>51.33602428563282</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.283309301024152</v>
+        <v>10.12061419913407</v>
       </c>
       <c r="C19">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D19">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="F19">
-        <v>1.588037187483759</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G19">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I19">
-        <v>9.462904554059785</v>
+        <v>41.94368505042714</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.234728252066189</v>
+        <v>9.905281982131218</v>
       </c>
       <c r="C20">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D20">
-        <v>1.31903216986464</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="E20">
-        <v>1.783428720059226</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F20">
-        <v>0.9772536538361588</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G20">
-        <v>0.9800142380314703</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I20">
-        <v>7.697255706479893</v>
+        <v>34.11756583412709</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>5.829725874955279</v>
+        <v>25.8398660403423</v>
       </c>
       <c r="C21">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D21">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E21">
-        <v>0.891714360029613</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F21">
-        <v>1.588037187483759</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G21">
-        <v>0.9800142380314703</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I21">
-        <v>11.18246744452704</v>
+        <v>49.56553137574147</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>16.80904293945439</v>
+        <v>74.50494708298699</v>
       </c>
       <c r="C22">
-        <v>1.074129793659222</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D22">
-        <v>6.595160849323197</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E22">
-        <v>4.012714620133258</v>
+        <v>17.78608642437444</v>
       </c>
       <c r="F22">
-        <v>5.130581682639833</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G22">
-        <v>7.840113904251762</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="I22">
-        <v>41.46174378946166</v>
+        <v>183.7763778776138</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>26.62241482896243</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C23">
-        <v>1.879727138903639</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D23">
-        <v>7.034838239278078</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E23">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F23">
-        <v>9.161753004713988</v>
+        <v>40.60885115602957</v>
       </c>
       <c r="G23">
-        <v>16.17023492751926</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H23">
-        <v>1.19845204486975</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I23">
-        <v>77.67242148476538</v>
+        <v>344.2777600946357</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>35.0755173476476</v>
+        <v>155.4698606760595</v>
       </c>
       <c r="C24">
-        <v>1.208396017866625</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D24">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E24">
-        <v>16.94257284056264</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F24">
-        <v>10.01684995182063</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G24">
-        <v>9.800142380314703</v>
+        <v>43.43846892896246</v>
       </c>
       <c r="H24">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I24">
-        <v>84.5147941050321</v>
+        <v>374.6061144114935</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>35.46416573931129</v>
+        <v>157.1925184120823</v>
       </c>
       <c r="C25">
-        <v>1.342662242074028</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D25">
-        <v>8.793547799097603</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E25">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F25">
-        <v>7.573715817230232</v>
+        <v>33.56998362231778</v>
       </c>
       <c r="G25">
-        <v>14.70021357047206</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H25">
-        <v>1.4381424538437</v>
+        <v>6.374469254874777</v>
       </c>
       <c r="I25">
-        <v>80.90473430241389</v>
+        <v>358.6047682593478</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>31.28619552892666</v>
+        <v>138.6739477498371</v>
       </c>
       <c r="C26">
-        <v>2.819590708355458</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D26">
-        <v>15.82838603837568</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E26">
-        <v>12.48400104041458</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F26">
-        <v>13.43723774024719</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G26">
-        <v>19.60028476062941</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H26">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I26">
-        <v>95.93507663489687</v>
+        <v>425.2257450844078</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>27.01106322062611</v>
+        <v>119.724712653586</v>
       </c>
       <c r="C27">
-        <v>2.819590708355458</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D27">
-        <v>11.43161213882688</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E27">
-        <v>7.579572060251713</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F27">
-        <v>15.75821516810806</v>
+        <v>69.84722398837087</v>
       </c>
       <c r="G27">
-        <v>13.72019933244059</v>
+        <v>60.81385650054747</v>
       </c>
       <c r="H27">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I27">
-        <v>78.55994303758277</v>
+        <v>348.2116394098263</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>30.65464189247318</v>
+        <v>135.8746289288</v>
       </c>
       <c r="C28">
-        <v>3.893720502014679</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D28">
-        <v>11.43161213882688</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E28">
-        <v>10.25471514034055</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F28">
-        <v>12.21567067295199</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G28">
-        <v>19.60028476062941</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H28">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I28">
-        <v>88.53002592518457</v>
+        <v>392.4033581548721</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>27.93410315082736</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C29">
-        <v>3.356655605185069</v>
+        <v>14.87814916892841</v>
       </c>
       <c r="D29">
-        <v>12.31096691873664</v>
+        <v>54.56752904521103</v>
       </c>
       <c r="E29">
-        <v>7.579572060251713</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F29">
-        <v>10.01684995182063</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G29">
-        <v>8.330121023267498</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H29">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I29">
-        <v>70.24733993701075</v>
+        <v>311.3665878289125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>28.22558944457513</v>
+        <v>125.1080180786574</v>
       </c>
       <c r="C30">
-        <v>2.013993363111041</v>
+        <v>8.926889501357048</v>
       </c>
       <c r="D30">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E30">
-        <v>6.687857700222096</v>
+        <v>29.64347737395741</v>
       </c>
       <c r="F30">
-        <v>12.21567067295199</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G30">
-        <v>16.17023492751926</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H30">
-        <v>0.9587616358957998</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I30">
-        <v>77.26404249314731</v>
+        <v>342.4676478074637</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>28.32275154249108</v>
+        <v>125.5386825126631</v>
       </c>
       <c r="C31">
-        <v>2.685324484148055</v>
+        <v>11.90251933514273</v>
       </c>
       <c r="D31">
-        <v>14.06967647855616</v>
+        <v>62.36289033738404</v>
       </c>
       <c r="E31">
-        <v>7.133714880236904</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F31">
-        <v>14.29233468735383</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G31">
-        <v>10.29014949933044</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="H31">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I31">
-        <v>77.27333239006435</v>
+        <v>342.5088246478527</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>29.63443986435598</v>
+        <v>131.35265237174</v>
       </c>
       <c r="C32">
-        <v>3.088123156770264</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D32">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E32">
-        <v>9.363000780310934</v>
+        <v>41.50086832354036</v>
       </c>
       <c r="F32">
-        <v>14.29233468735383</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G32">
-        <v>11.27016373736191</v>
+        <v>49.95423926830686</v>
       </c>
       <c r="H32">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I32">
-        <v>79.35906820194677</v>
+        <v>351.7537077059262</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>33.76382902578266</v>
+        <v>149.6558908169826</v>
       </c>
       <c r="C33">
-        <v>2.148259587318444</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D33">
-        <v>17.58709559819521</v>
+        <v>77.95361292173006</v>
       </c>
       <c r="E33">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F33">
-        <v>13.31508103351767</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G33">
-        <v>10.78015661834617</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="H33">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I33">
-        <v>89.01406541043735</v>
+        <v>394.5488304678844</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>41.09956741843471</v>
+        <v>182.1710555844133</v>
       </c>
       <c r="C34">
-        <v>3.222389380977667</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D34">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E34">
-        <v>9.808857960325742</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F34">
-        <v>11.60488713930439</v>
+        <v>51.4378781309708</v>
       </c>
       <c r="G34">
-        <v>7.840113904251762</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H34">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I34">
-        <v>84.80744096114022</v>
+        <v>375.9032518277566</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>40.1279464392755</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C35">
-        <v>0.9398635694518193</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D35">
-        <v>11.87128952878175</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E35">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F35">
-        <v>6.107835336475994</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G35">
-        <v>4.900071190157352</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H35">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I35">
-        <v>76.01867356247529</v>
+        <v>336.9476341688093</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>35.36700364139533</v>
+        <v>156.7618539780766</v>
       </c>
       <c r="C36">
-        <v>1.611194690488833</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D36">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E36">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F36">
-        <v>4.397641442262715</v>
+        <v>19.49224855489419</v>
       </c>
       <c r="G36">
-        <v>8.330121023267498</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H36">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I36">
-        <v>74.1442133250232</v>
+        <v>328.6392158190218</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>27.78836000395349</v>
+        <v>123.1700281256317</v>
       </c>
       <c r="C37">
-        <v>0.8055973452444167</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D37">
-        <v>6.595160849323197</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E37">
-        <v>12.48400104041458</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F37">
-        <v>3.909014615344635</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G37">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H37">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I37">
-        <v>56.2318883343959</v>
+        <v>249.2440455902953</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>21.81289098212432</v>
+        <v>96.68416543428079</v>
       </c>
       <c r="C38">
-        <v>1.208396017866625</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D38">
-        <v>6.155483459368318</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E38">
-        <v>14.26742976047381</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F38">
-        <v>2.565290841319916</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G38">
-        <v>2.940042714094412</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I38">
-        <v>48.9495337752474</v>
+        <v>216.9655010578533</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>14.33140944259839</v>
+        <v>63.52300401584149</v>
       </c>
       <c r="C39">
-        <v>0.5370648968296111</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D39">
-        <v>2.63806433972928</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E39">
-        <v>8.025429240266515</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F39">
-        <v>1.832350600942798</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G39">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H39">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I39">
-        <v>31.03405876245069</v>
+        <v>137.5563685687003</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>7.432900490567976</v>
+        <v>32.94582920143643</v>
       </c>
       <c r="C40">
-        <v>1.47692846628143</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D40">
-        <v>3.517419119639039</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E40">
-        <v>3.566857440118452</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F40">
-        <v>2.198820721131358</v>
+        <v>9.746124277447095</v>
       </c>
       <c r="G40">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I40">
-        <v>20.64296183281693</v>
+        <v>91.49853352924259</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.101010140585869</v>
+        <v>22.60988278529953</v>
       </c>
       <c r="C41">
-        <v>0.6713311210370138</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D41">
-        <v>0.8793547799097597</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F41">
-        <v>1.099410360565679</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G41">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I41">
-        <v>10.201141997177</v>
+        <v>45.21587263613588</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>4.129389161426655</v>
+        <v>18.30323844524247</v>
       </c>
       <c r="C42">
-        <v>1.342662242074028</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D42">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E42">
-        <v>0.4458571800148065</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F42">
-        <v>1.465880480754238</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G42">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H42">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I42">
-        <v>11.58190791810009</v>
+        <v>51.33602428563282</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.283309301024152</v>
+        <v>10.12061419913407</v>
       </c>
       <c r="C43">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D43">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="F43">
-        <v>1.588037187483759</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G43">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I43">
-        <v>9.462904554059785</v>
+        <v>41.94368505042714</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.234728252066189</v>
+        <v>9.905281982131218</v>
       </c>
       <c r="C44">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D44">
-        <v>1.31903216986464</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="E44">
-        <v>1.783428720059226</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F44">
-        <v>0.9772536538361588</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G44">
-        <v>0.9800142380314703</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I44">
-        <v>7.697255706479893</v>
+        <v>34.11756583412709</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>5.829725874955279</v>
+        <v>25.8398660403423</v>
       </c>
       <c r="C45">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D45">
-        <v>1.758709559819519</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E45">
-        <v>0.891714360029613</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F45">
-        <v>1.588037187483759</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G45">
-        <v>0.9800142380314703</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I45">
-        <v>11.18246744452704</v>
+        <v>49.56553137574147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>16.80904293945439</v>
+        <v>74.50494708298699</v>
       </c>
       <c r="C46">
-        <v>1.074129793659222</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D46">
-        <v>6.595160849323197</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E46">
-        <v>4.012714620133258</v>
+        <v>17.78608642437444</v>
       </c>
       <c r="F46">
-        <v>5.130581682639833</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G46">
-        <v>7.840113904251762</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="I46">
-        <v>41.46174378946166</v>
+        <v>183.7763778776138</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>26.62241482896243</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C47">
-        <v>1.879727138903639</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D47">
-        <v>7.034838239278078</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E47">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F47">
-        <v>9.161753004713988</v>
+        <v>40.60885115602957</v>
       </c>
       <c r="G47">
-        <v>16.17023492751926</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H47">
-        <v>1.19845204486975</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I47">
-        <v>77.67242148476538</v>
+        <v>344.2777600946357</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>35.0755173476476</v>
+        <v>155.4698606760595</v>
       </c>
       <c r="C48">
-        <v>1.208396017866625</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D48">
-        <v>10.991934748872</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E48">
-        <v>16.94257284056264</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F48">
-        <v>10.01684995182063</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G48">
-        <v>9.800142380314703</v>
+        <v>43.43846892896246</v>
       </c>
       <c r="H48">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I48">
-        <v>84.5147941050321</v>
+        <v>374.6061144114935</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>35.46416573931129</v>
+        <v>157.1925184120823</v>
       </c>
       <c r="C49">
-        <v>1.342662242074028</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D49">
-        <v>8.793547799097603</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E49">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F49">
-        <v>7.573715817230232</v>
+        <v>33.56998362231778</v>
       </c>
       <c r="G49">
-        <v>14.70021357047206</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H49">
-        <v>1.4381424538437</v>
+        <v>6.374469254874777</v>
       </c>
       <c r="I49">
-        <v>80.90473430241389</v>
+        <v>358.6047682593478</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>138.6739477498371</v>
+        <v>30.81643283329713</v>
       </c>
       <c r="C2">
-        <v>12.49764530189987</v>
+        <v>2.777254511533304</v>
       </c>
       <c r="D2">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E2">
-        <v>55.33449109805383</v>
+        <v>12.2965535773453</v>
       </c>
       <c r="F2">
-        <v>59.5596483621767</v>
+        <v>13.23547741381705</v>
       </c>
       <c r="G2">
-        <v>86.87693785792493</v>
+        <v>19.30598619064999</v>
       </c>
       <c r="H2">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I2">
-        <v>425.2257450844078</v>
+        <v>94.49461001875729</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>159.3458405821109</v>
+        <v>35.41018679602465</v>
       </c>
       <c r="C3">
-        <v>14.87814916892841</v>
+        <v>3.30625537087298</v>
       </c>
       <c r="D3">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E3">
-        <v>31.61970919888789</v>
+        <v>7.02660204419731</v>
       </c>
       <c r="F3">
-        <v>74.7202861270944</v>
+        <v>16.60450802824321</v>
       </c>
       <c r="G3">
-        <v>134.6592536797837</v>
+        <v>29.92427859550748</v>
       </c>
       <c r="I3">
-        <v>461.9954065098433</v>
+        <v>102.6656458910763</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>129.8453268527201</v>
+        <v>28.85451707838225</v>
       </c>
       <c r="C4">
-        <v>10.71226740162846</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D4">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E4">
-        <v>53.35825927312332</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F4">
-        <v>58.47674566468257</v>
+        <v>12.99483236992946</v>
       </c>
       <c r="G4">
-        <v>89.04886130437306</v>
+        <v>19.78863584541623</v>
       </c>
       <c r="H4">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I4">
-        <v>380.5942497193076</v>
+        <v>84.57649993762391</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>148.5792297319683</v>
+        <v>33.01760660710407</v>
       </c>
       <c r="C5">
-        <v>14.28302320217128</v>
+        <v>3.17400515603806</v>
       </c>
       <c r="D5">
-        <v>56.51636936825429</v>
+        <v>12.5591931929454</v>
       </c>
       <c r="E5">
-        <v>35.57217284874888</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F5">
-        <v>56.85239161844139</v>
+        <v>12.63386480409809</v>
       </c>
       <c r="G5">
-        <v>62.98577994699559</v>
+        <v>13.99683998822124</v>
       </c>
       <c r="H5">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I5">
-        <v>379.0386128864962</v>
+        <v>84.23080286366584</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>141.2579343538712</v>
+        <v>31.39065207863807</v>
       </c>
       <c r="C6">
-        <v>19.6391569029855</v>
+        <v>4.364257089552333</v>
       </c>
       <c r="D6">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E6">
-        <v>33.59594102381838</v>
+        <v>7.465764671959643</v>
       </c>
       <c r="F6">
-        <v>56.31094026969434</v>
+        <v>12.5135422821543</v>
       </c>
       <c r="G6">
-        <v>84.7050144114768</v>
+        <v>18.82333653588374</v>
       </c>
       <c r="H6">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I6">
-        <v>383.3435662573634</v>
+        <v>85.18745916830301</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>138.4586155328342</v>
+        <v>30.76858122951872</v>
       </c>
       <c r="C7">
-        <v>11.30739336838559</v>
+        <v>2.512754081863465</v>
       </c>
       <c r="D7">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E7">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F7">
-        <v>63.34980780340614</v>
+        <v>14.07773506742359</v>
       </c>
       <c r="G7">
-        <v>78.18924407213245</v>
+        <v>17.37538757158498</v>
       </c>
       <c r="H7">
-        <v>9.561703882312163</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I7">
-        <v>383.3480627702937</v>
+        <v>85.18845839339859</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>133.5059745417686</v>
+        <v>29.66799434261524</v>
       </c>
       <c r="C8">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D8">
-        <v>38.97680646086503</v>
+        <v>8.661512546858892</v>
       </c>
       <c r="E8">
-        <v>39.52463649860987</v>
+        <v>8.783252555246641</v>
       </c>
       <c r="F8">
-        <v>60.10109971092377</v>
+        <v>13.35579993576084</v>
       </c>
       <c r="G8">
-        <v>65.15770339344371</v>
+        <v>14.47948964298749</v>
       </c>
       <c r="H8">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I8">
-        <v>357.7121082690053</v>
+        <v>79.49157961533452</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>149.6558908169826</v>
+        <v>33.25686462599614</v>
       </c>
       <c r="C9">
-        <v>9.522015468114184</v>
+        <v>2.116003437358707</v>
       </c>
       <c r="D9">
-        <v>77.95361292173006</v>
+        <v>17.32302509371778</v>
       </c>
       <c r="E9">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F9">
-        <v>59.01819701342964</v>
+        <v>13.11515489187325</v>
       </c>
       <c r="G9">
-        <v>47.78231582185871</v>
+        <v>10.61829240485749</v>
       </c>
       <c r="H9">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I9">
-        <v>394.5488304678844</v>
+        <v>87.6775178817521</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>182.1710555844133</v>
+        <v>40.48245679653627</v>
       </c>
       <c r="C10">
-        <v>14.28302320217128</v>
+        <v>3.17400515603806</v>
       </c>
       <c r="D10">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E10">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F10">
-        <v>51.4378781309708</v>
+        <v>11.43063958466018</v>
       </c>
       <c r="G10">
-        <v>34.75077514316997</v>
+        <v>7.722394476259993</v>
       </c>
       <c r="H10">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I10">
-        <v>375.9032518277566</v>
+        <v>83.53405596172368</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>177.8644112443561</v>
+        <v>39.52542472096804</v>
       </c>
       <c r="C11">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D11">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E11">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F11">
-        <v>27.07256743735304</v>
+        <v>6.016126097189567</v>
       </c>
       <c r="G11">
-        <v>21.71923446448123</v>
+        <v>4.826496547662497</v>
       </c>
       <c r="H11">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I11">
-        <v>336.9476341688093</v>
+        <v>74.87725203751317</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>156.7618539780766</v>
+        <v>34.83596755068372</v>
       </c>
       <c r="C12">
-        <v>7.141511601085638</v>
+        <v>1.58700257801903</v>
       </c>
       <c r="D12">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E12">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F12">
-        <v>19.49224855489419</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G12">
-        <v>36.92269858961809</v>
+        <v>8.205044131026243</v>
       </c>
       <c r="H12">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I12">
-        <v>328.6392158190218</v>
+        <v>73.03093684867154</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>123.1700281256317</v>
+        <v>27.37111736125149</v>
       </c>
       <c r="C13">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D13">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E13">
-        <v>55.33449109805383</v>
+        <v>12.2965535773453</v>
       </c>
       <c r="F13">
-        <v>17.32644315990595</v>
+        <v>3.850320702201323</v>
       </c>
       <c r="G13">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H13">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I13">
-        <v>249.2440455902953</v>
+        <v>55.38756568673229</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>96.68416543428079</v>
+        <v>21.48537009650685</v>
       </c>
       <c r="C14">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D14">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E14">
-        <v>63.23941839777578</v>
+        <v>14.05320408839462</v>
       </c>
       <c r="F14">
-        <v>11.37047832368828</v>
+        <v>2.526772960819618</v>
       </c>
       <c r="G14">
-        <v>13.03154067868874</v>
+        <v>2.895897928597497</v>
       </c>
       <c r="I14">
-        <v>216.9655010578533</v>
+        <v>48.21455579063409</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>63.52300401584149</v>
+        <v>14.11622311463145</v>
       </c>
       <c r="C15">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D15">
-        <v>11.69304193825951</v>
+        <v>2.598453764057668</v>
       </c>
       <c r="E15">
-        <v>35.57217284874888</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F15">
-        <v>8.121770231205915</v>
+        <v>1.80483782915687</v>
       </c>
       <c r="G15">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="H15">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I15">
-        <v>137.5563685687003</v>
+        <v>30.56808190415563</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>32.94582920143643</v>
+        <v>7.321295378096988</v>
       </c>
       <c r="C16">
-        <v>6.546385634328502</v>
+        <v>1.454752363184111</v>
       </c>
       <c r="D16">
-        <v>15.59072258434601</v>
+        <v>3.464605018743558</v>
       </c>
       <c r="E16">
-        <v>15.80985459944394</v>
+        <v>3.513301022098655</v>
       </c>
       <c r="F16">
-        <v>9.746124277447095</v>
+        <v>2.165805394988244</v>
       </c>
       <c r="G16">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I16">
-        <v>91.49853352924259</v>
+        <v>20.33300745094281</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>22.60988278529953</v>
+        <v>5.024418396733228</v>
       </c>
       <c r="C17">
-        <v>2.975629833785681</v>
+        <v>0.6612510741745961</v>
       </c>
       <c r="D17">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="F17">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G17">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I17">
-        <v>45.21587263613588</v>
+        <v>10.04797169691908</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>18.30323844524247</v>
+        <v>4.067386321164994</v>
       </c>
       <c r="C18">
-        <v>5.951259667571363</v>
+        <v>1.322502148349192</v>
       </c>
       <c r="D18">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E18">
-        <v>1.976231824930493</v>
+        <v>0.4391626277623319</v>
       </c>
       <c r="F18">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G18">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="H18">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I18">
-        <v>51.33602428563282</v>
+        <v>11.40800539680729</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>10.12061419913407</v>
+        <v>2.249025377585348</v>
       </c>
       <c r="C19">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D19">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="F19">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G19">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="I19">
-        <v>41.94368505042714</v>
+        <v>9.32081890009492</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>9.905281982131218</v>
+        <v>2.201173773806938</v>
       </c>
       <c r="C20">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D20">
-        <v>5.846520969129754</v>
+        <v>1.299226882028834</v>
       </c>
       <c r="E20">
-        <v>7.904927299721972</v>
+        <v>1.756650511049328</v>
       </c>
       <c r="F20">
-        <v>4.331610789976488</v>
+        <v>0.9625801755503307</v>
       </c>
       <c r="G20">
-        <v>4.343846892896246</v>
+        <v>0.9652993095324991</v>
       </c>
       <c r="I20">
-        <v>34.11756583412709</v>
+        <v>7.581681296472687</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>25.8398660403423</v>
+        <v>5.742192453409404</v>
       </c>
       <c r="C21">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D21">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E21">
-        <v>3.952463649860986</v>
+        <v>0.8783252555246638</v>
       </c>
       <c r="F21">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G21">
-        <v>4.343846892896246</v>
+        <v>0.9652993095324991</v>
       </c>
       <c r="I21">
-        <v>49.56553137574147</v>
+        <v>11.01456252794255</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>74.50494708298699</v>
+        <v>16.55665490733044</v>
       </c>
       <c r="C22">
-        <v>4.761007734057092</v>
+        <v>1.058001718679354</v>
       </c>
       <c r="D22">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E22">
-        <v>17.78608642437444</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F22">
-        <v>22.74095664737656</v>
+        <v>5.053545921639236</v>
       </c>
       <c r="G22">
-        <v>34.75077514316997</v>
+        <v>7.722394476259993</v>
       </c>
       <c r="I22">
-        <v>183.7763778776138</v>
+        <v>40.83919508391418</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>118.0020549175632</v>
+        <v>26.2226788705696</v>
       </c>
       <c r="C23">
-        <v>8.331763534599911</v>
+        <v>1.851503007688869</v>
       </c>
       <c r="D23">
-        <v>31.18144516869202</v>
+        <v>6.929210037487116</v>
       </c>
       <c r="E23">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F23">
-        <v>40.60885115602957</v>
+        <v>9.02418914578435</v>
       </c>
       <c r="G23">
-        <v>71.67347373278805</v>
+        <v>15.92743860728624</v>
       </c>
       <c r="H23">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I23">
-        <v>344.2777600946357</v>
+        <v>76.50616890991904</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>155.4698606760595</v>
+        <v>34.54885792801322</v>
       </c>
       <c r="C24">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D24">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E24">
-        <v>75.09680934735877</v>
+        <v>16.68817985496861</v>
       </c>
       <c r="F24">
-        <v>44.399010597259</v>
+        <v>9.866446799390889</v>
       </c>
       <c r="G24">
-        <v>43.43846892896246</v>
+        <v>9.652993095324994</v>
       </c>
       <c r="H24">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I24">
-        <v>374.6061144114935</v>
+        <v>83.24580320255411</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>157.1925184120823</v>
+        <v>34.93167075824053</v>
       </c>
       <c r="C25">
-        <v>5.951259667571363</v>
+        <v>1.322502148349192</v>
       </c>
       <c r="D25">
-        <v>38.97680646086503</v>
+        <v>8.661512546858892</v>
       </c>
       <c r="E25">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F25">
-        <v>33.56998362231778</v>
+        <v>7.459996360515063</v>
       </c>
       <c r="G25">
-        <v>65.15770339344371</v>
+        <v>14.47948964298749</v>
       </c>
       <c r="H25">
-        <v>6.374469254874777</v>
+        <v>1.416548723305506</v>
       </c>
       <c r="I25">
-        <v>358.6047682593478</v>
+        <v>79.68994850207731</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>138.6739477498371</v>
+        <v>30.81643283329713</v>
       </c>
       <c r="C26">
-        <v>12.49764530189987</v>
+        <v>2.777254511533304</v>
       </c>
       <c r="D26">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E26">
-        <v>55.33449109805383</v>
+        <v>12.2965535773453</v>
       </c>
       <c r="F26">
-        <v>59.5596483621767</v>
+        <v>13.23547741381705</v>
       </c>
       <c r="G26">
-        <v>86.87693785792493</v>
+        <v>19.30598619064999</v>
       </c>
       <c r="H26">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I26">
-        <v>425.2257450844078</v>
+        <v>94.49461001875729</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>119.724712653586</v>
+        <v>26.60549170079687</v>
       </c>
       <c r="C27">
-        <v>12.49764530189987</v>
+        <v>2.777254511533304</v>
       </c>
       <c r="D27">
-        <v>50.66984839912454</v>
+        <v>11.25996631091656</v>
       </c>
       <c r="E27">
-        <v>33.59594102381838</v>
+        <v>7.465764671959643</v>
       </c>
       <c r="F27">
-        <v>69.84722398837087</v>
+        <v>15.52160533074909</v>
       </c>
       <c r="G27">
-        <v>60.81385650054747</v>
+        <v>13.51419033345499</v>
       </c>
       <c r="H27">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I27">
-        <v>348.2116394098263</v>
+        <v>77.38036431329472</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>135.8746289288</v>
+        <v>30.19436198417776</v>
       </c>
       <c r="C28">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D28">
-        <v>50.66984839912454</v>
+        <v>11.25996631091656</v>
       </c>
       <c r="E28">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F28">
-        <v>54.14513487470609</v>
+        <v>12.03225219437913</v>
       </c>
       <c r="G28">
-        <v>86.87693785792493</v>
+        <v>19.30598619064999</v>
       </c>
       <c r="H28">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I28">
-        <v>392.4033581548721</v>
+        <v>87.20074625663824</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>123.8160247766402</v>
+        <v>27.51467217258672</v>
       </c>
       <c r="C29">
-        <v>14.87814916892841</v>
+        <v>3.30625537087298</v>
       </c>
       <c r="D29">
-        <v>54.56752904521103</v>
+        <v>12.12611756560245</v>
       </c>
       <c r="E29">
-        <v>33.59594102381838</v>
+        <v>7.465764671959643</v>
       </c>
       <c r="F29">
-        <v>44.399010597259</v>
+        <v>9.866446799390889</v>
       </c>
       <c r="G29">
-        <v>36.92269858961809</v>
+        <v>8.205044131026243</v>
       </c>
       <c r="H29">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I29">
-        <v>311.3665878289125</v>
+        <v>69.19257507309167</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>125.1080180786574</v>
+        <v>27.80178179525718</v>
       </c>
       <c r="C30">
-        <v>8.926889501357048</v>
+        <v>1.983753222523788</v>
       </c>
       <c r="D30">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E30">
-        <v>29.64347737395741</v>
+        <v>6.587439416434979</v>
       </c>
       <c r="F30">
-        <v>54.14513487470609</v>
+        <v>12.03225219437913</v>
       </c>
       <c r="G30">
-        <v>71.67347373278805</v>
+        <v>15.92743860728624</v>
       </c>
       <c r="H30">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I30">
-        <v>342.4676478074637</v>
+        <v>76.10392173499194</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>125.5386825126631</v>
+        <v>27.897485002814</v>
       </c>
       <c r="C31">
-        <v>11.90251933514273</v>
+        <v>2.645004296698384</v>
       </c>
       <c r="D31">
-        <v>62.36289033738404</v>
+        <v>13.85842007497423</v>
       </c>
       <c r="E31">
-        <v>31.61970919888789</v>
+        <v>7.02660204419731</v>
       </c>
       <c r="F31">
-        <v>63.34980780340614</v>
+        <v>14.07773506742359</v>
       </c>
       <c r="G31">
-        <v>45.61039237541058</v>
+        <v>10.13564275009124</v>
       </c>
       <c r="H31">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I31">
-        <v>342.5088246478527</v>
+        <v>76.11307214396724</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>131.35265237174</v>
+        <v>29.18947830483114</v>
       </c>
       <c r="C32">
-        <v>13.68789723541414</v>
+        <v>3.041754941203142</v>
       </c>
       <c r="D32">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E32">
-        <v>41.50086832354036</v>
+        <v>9.222415183008971</v>
       </c>
       <c r="F32">
-        <v>63.34980780340614</v>
+        <v>14.07773506742359</v>
       </c>
       <c r="G32">
-        <v>49.95423926830686</v>
+        <v>11.10094205962374</v>
       </c>
       <c r="H32">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I32">
-        <v>351.7537077059262</v>
+        <v>78.16749060131697</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>149.6558908169826</v>
+        <v>33.25686462599614</v>
       </c>
       <c r="C33">
-        <v>9.522015468114184</v>
+        <v>2.116003437358707</v>
       </c>
       <c r="D33">
-        <v>77.95361292173006</v>
+        <v>17.32302509371778</v>
       </c>
       <c r="E33">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F33">
-        <v>59.01819701342964</v>
+        <v>13.11515489187325</v>
       </c>
       <c r="G33">
-        <v>47.78231582185871</v>
+        <v>10.61829240485749</v>
       </c>
       <c r="H33">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I33">
-        <v>394.5488304678844</v>
+        <v>87.6775178817521</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>182.1710555844133</v>
+        <v>40.48245679653627</v>
       </c>
       <c r="C34">
-        <v>14.28302320217128</v>
+        <v>3.17400515603806</v>
       </c>
       <c r="D34">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E34">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F34">
-        <v>51.4378781309708</v>
+        <v>11.43063958466018</v>
       </c>
       <c r="G34">
-        <v>34.75077514316997</v>
+        <v>7.722394476259993</v>
       </c>
       <c r="H34">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I34">
-        <v>375.9032518277566</v>
+        <v>83.53405596172368</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>177.8644112443561</v>
+        <v>39.52542472096804</v>
       </c>
       <c r="C35">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D35">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E35">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F35">
-        <v>27.07256743735304</v>
+        <v>6.016126097189567</v>
       </c>
       <c r="G35">
-        <v>21.71923446448123</v>
+        <v>4.826496547662497</v>
       </c>
       <c r="H35">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I35">
-        <v>336.9476341688093</v>
+        <v>74.87725203751317</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>156.7618539780766</v>
+        <v>34.83596755068372</v>
       </c>
       <c r="C36">
-        <v>7.141511601085638</v>
+        <v>1.58700257801903</v>
       </c>
       <c r="D36">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E36">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F36">
-        <v>19.49224855489419</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G36">
-        <v>36.92269858961809</v>
+        <v>8.205044131026243</v>
       </c>
       <c r="H36">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I36">
-        <v>328.6392158190218</v>
+        <v>73.03093684867154</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>123.1700281256317</v>
+        <v>27.37111736125149</v>
       </c>
       <c r="C37">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D37">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E37">
-        <v>55.33449109805383</v>
+        <v>12.2965535773453</v>
       </c>
       <c r="F37">
-        <v>17.32644315990595</v>
+        <v>3.850320702201323</v>
       </c>
       <c r="G37">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H37">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I37">
-        <v>249.2440455902953</v>
+        <v>55.38756568673229</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>96.68416543428079</v>
+        <v>21.48537009650685</v>
       </c>
       <c r="C38">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D38">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E38">
-        <v>63.23941839777578</v>
+        <v>14.05320408839462</v>
       </c>
       <c r="F38">
-        <v>11.37047832368828</v>
+        <v>2.526772960819618</v>
       </c>
       <c r="G38">
-        <v>13.03154067868874</v>
+        <v>2.895897928597497</v>
       </c>
       <c r="I38">
-        <v>216.9655010578533</v>
+        <v>48.21455579063409</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>63.52300401584149</v>
+        <v>14.11622311463145</v>
       </c>
       <c r="C39">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D39">
-        <v>11.69304193825951</v>
+        <v>2.598453764057668</v>
       </c>
       <c r="E39">
-        <v>35.57217284874888</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F39">
-        <v>8.121770231205915</v>
+        <v>1.80483782915687</v>
       </c>
       <c r="G39">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="H39">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I39">
-        <v>137.5563685687003</v>
+        <v>30.56808190415563</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>32.94582920143643</v>
+        <v>7.321295378096988</v>
       </c>
       <c r="C40">
-        <v>6.546385634328502</v>
+        <v>1.454752363184111</v>
       </c>
       <c r="D40">
-        <v>15.59072258434601</v>
+        <v>3.464605018743558</v>
       </c>
       <c r="E40">
-        <v>15.80985459944394</v>
+        <v>3.513301022098655</v>
       </c>
       <c r="F40">
-        <v>9.746124277447095</v>
+        <v>2.165805394988244</v>
       </c>
       <c r="G40">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I40">
-        <v>91.49853352924259</v>
+        <v>20.33300745094281</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>22.60988278529953</v>
+        <v>5.024418396733228</v>
       </c>
       <c r="C41">
-        <v>2.975629833785681</v>
+        <v>0.6612510741745961</v>
       </c>
       <c r="D41">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="F41">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G41">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I41">
-        <v>45.21587263613588</v>
+        <v>10.04797169691908</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>18.30323844524247</v>
+        <v>4.067386321164994</v>
       </c>
       <c r="C42">
-        <v>5.951259667571363</v>
+        <v>1.322502148349192</v>
       </c>
       <c r="D42">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E42">
-        <v>1.976231824930493</v>
+        <v>0.4391626277623319</v>
       </c>
       <c r="F42">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G42">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="H42">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I42">
-        <v>51.33602428563282</v>
+        <v>11.40800539680729</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>10.12061419913407</v>
+        <v>2.249025377585348</v>
       </c>
       <c r="C43">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D43">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="F43">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G43">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="I43">
-        <v>41.94368505042714</v>
+        <v>9.32081890009492</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>9.905281982131218</v>
+        <v>2.201173773806938</v>
       </c>
       <c r="C44">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D44">
-        <v>5.846520969129754</v>
+        <v>1.299226882028834</v>
       </c>
       <c r="E44">
-        <v>7.904927299721972</v>
+        <v>1.756650511049328</v>
       </c>
       <c r="F44">
-        <v>4.331610789976488</v>
+        <v>0.9625801755503307</v>
       </c>
       <c r="G44">
-        <v>4.343846892896246</v>
+        <v>0.9652993095324991</v>
       </c>
       <c r="I44">
-        <v>34.11756583412709</v>
+        <v>7.581681296472687</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>25.8398660403423</v>
+        <v>5.742192453409404</v>
       </c>
       <c r="C45">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D45">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E45">
-        <v>3.952463649860986</v>
+        <v>0.8783252555246638</v>
       </c>
       <c r="F45">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G45">
-        <v>4.343846892896246</v>
+        <v>0.9652993095324991</v>
       </c>
       <c r="I45">
-        <v>49.56553137574147</v>
+        <v>11.01456252794255</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>74.50494708298699</v>
+        <v>16.55665490733044</v>
       </c>
       <c r="C46">
-        <v>4.761007734057092</v>
+        <v>1.058001718679354</v>
       </c>
       <c r="D46">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E46">
-        <v>17.78608642437444</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F46">
-        <v>22.74095664737656</v>
+        <v>5.053545921639236</v>
       </c>
       <c r="G46">
-        <v>34.75077514316997</v>
+        <v>7.722394476259993</v>
       </c>
       <c r="I46">
-        <v>183.7763778776138</v>
+        <v>40.83919508391418</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>118.0020549175632</v>
+        <v>26.2226788705696</v>
       </c>
       <c r="C47">
-        <v>8.331763534599911</v>
+        <v>1.851503007688869</v>
       </c>
       <c r="D47">
-        <v>31.18144516869202</v>
+        <v>6.929210037487116</v>
       </c>
       <c r="E47">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F47">
-        <v>40.60885115602957</v>
+        <v>9.02418914578435</v>
       </c>
       <c r="G47">
-        <v>71.67347373278805</v>
+        <v>15.92743860728624</v>
       </c>
       <c r="H47">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I47">
-        <v>344.2777600946357</v>
+        <v>76.50616890991904</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>155.4698606760595</v>
+        <v>34.54885792801322</v>
       </c>
       <c r="C48">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D48">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E48">
-        <v>75.09680934735877</v>
+        <v>16.68817985496861</v>
       </c>
       <c r="F48">
-        <v>44.399010597259</v>
+        <v>9.866446799390889</v>
       </c>
       <c r="G48">
-        <v>43.43846892896246</v>
+        <v>9.652993095324994</v>
       </c>
       <c r="H48">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I48">
-        <v>374.6061144114935</v>
+        <v>83.24580320255411</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>157.1925184120823</v>
+        <v>34.93167075824053</v>
       </c>
       <c r="C49">
-        <v>5.951259667571363</v>
+        <v>1.322502148349192</v>
       </c>
       <c r="D49">
-        <v>38.97680646086503</v>
+        <v>8.661512546858892</v>
       </c>
       <c r="E49">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F49">
-        <v>33.56998362231778</v>
+        <v>7.459996360515063</v>
       </c>
       <c r="G49">
-        <v>65.15770339344371</v>
+        <v>14.47948964298749</v>
       </c>
       <c r="H49">
-        <v>6.374469254874777</v>
+        <v>1.416548723305506</v>
       </c>
       <c r="I49">
-        <v>358.6047682593478</v>
+        <v>79.68994850207731</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>30.81643283329713</v>
+        <v>138.6739477498371</v>
       </c>
       <c r="C2">
-        <v>2.777254511533304</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D2">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E2">
-        <v>12.2965535773453</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F2">
-        <v>13.23547741381705</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G2">
-        <v>19.30598619064999</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H2">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I2">
-        <v>94.49461001875729</v>
+        <v>425.2257450844078</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>35.41018679602465</v>
+        <v>159.3458405821109</v>
       </c>
       <c r="C3">
-        <v>3.30625537087298</v>
+        <v>14.87814916892841</v>
       </c>
       <c r="D3">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E3">
-        <v>7.02660204419731</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F3">
-        <v>16.60450802824321</v>
+        <v>74.7202861270944</v>
       </c>
       <c r="G3">
-        <v>29.92427859550748</v>
+        <v>134.6592536797837</v>
       </c>
       <c r="I3">
-        <v>102.6656458910763</v>
+        <v>461.9954065098433</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>28.85451707838225</v>
+        <v>129.8453268527201</v>
       </c>
       <c r="C4">
-        <v>2.380503867028546</v>
+        <v>10.71226740162846</v>
       </c>
       <c r="D4">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E4">
-        <v>11.85739094958296</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F4">
-        <v>12.99483236992946</v>
+        <v>58.47674566468257</v>
       </c>
       <c r="G4">
-        <v>19.78863584541623</v>
+        <v>89.04886130437306</v>
       </c>
       <c r="H4">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I4">
-        <v>84.57649993762391</v>
+        <v>380.5942497193076</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>33.01760660710407</v>
+        <v>148.5792297319683</v>
       </c>
       <c r="C5">
-        <v>3.17400515603806</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D5">
-        <v>12.5591931929454</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E5">
-        <v>7.904927299721972</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F5">
-        <v>12.63386480409809</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G5">
-        <v>13.99683998822124</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H5">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I5">
-        <v>84.23080286366584</v>
+        <v>379.0386128864962</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>31.39065207863807</v>
+        <v>141.2579343538712</v>
       </c>
       <c r="C6">
-        <v>4.364257089552333</v>
+        <v>19.6391569029855</v>
       </c>
       <c r="D6">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E6">
-        <v>7.465764671959643</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F6">
-        <v>12.5135422821543</v>
+        <v>56.31094026969434</v>
       </c>
       <c r="G6">
-        <v>18.82333653588374</v>
+        <v>84.7050144114768</v>
       </c>
       <c r="H6">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I6">
-        <v>85.18745916830301</v>
+        <v>383.3435662573634</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>30.76858122951872</v>
+        <v>138.4586155328342</v>
       </c>
       <c r="C7">
-        <v>2.512754081863465</v>
+        <v>11.30739336838559</v>
       </c>
       <c r="D7">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E7">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F7">
-        <v>14.07773506742359</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G7">
-        <v>17.37538757158498</v>
+        <v>78.18924407213245</v>
       </c>
       <c r="H7">
-        <v>2.124823084958259</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I7">
-        <v>85.18845839339859</v>
+        <v>383.3480627702937</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>29.66799434261524</v>
+        <v>133.5059745417686</v>
       </c>
       <c r="C8">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D8">
-        <v>8.661512546858892</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E8">
-        <v>8.783252555246641</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F8">
-        <v>13.35579993576084</v>
+        <v>60.10109971092377</v>
       </c>
       <c r="G8">
-        <v>14.47948964298749</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H8">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I8">
-        <v>79.49157961533452</v>
+        <v>357.7121082690053</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>33.25686462599614</v>
+        <v>149.6558908169826</v>
       </c>
       <c r="C9">
-        <v>2.116003437358707</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D9">
-        <v>17.32302509371778</v>
+        <v>77.95361292173006</v>
       </c>
       <c r="E9">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F9">
-        <v>13.11515489187325</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G9">
-        <v>10.61829240485749</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="H9">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I9">
-        <v>87.6775178817521</v>
+        <v>394.5488304678844</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>40.48245679653627</v>
+        <v>182.1710555844133</v>
       </c>
       <c r="C10">
-        <v>3.17400515603806</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D10">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E10">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F10">
-        <v>11.43063958466018</v>
+        <v>51.4378781309708</v>
       </c>
       <c r="G10">
-        <v>7.722394476259993</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H10">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I10">
-        <v>83.53405596172368</v>
+        <v>375.9032518277566</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>39.52542472096804</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C11">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D11">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E11">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F11">
-        <v>6.016126097189567</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G11">
-        <v>4.826496547662497</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H11">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I11">
-        <v>74.87725203751317</v>
+        <v>336.9476341688093</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>34.83596755068372</v>
+        <v>156.7618539780766</v>
       </c>
       <c r="C12">
-        <v>1.58700257801903</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D12">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E12">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F12">
-        <v>4.331610789976488</v>
+        <v>19.49224855489419</v>
       </c>
       <c r="G12">
-        <v>8.205044131026243</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H12">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I12">
-        <v>73.03093684867154</v>
+        <v>328.6392158190218</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>27.37111736125149</v>
+        <v>123.1700281256317</v>
       </c>
       <c r="C13">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D13">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E13">
-        <v>12.2965535773453</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F13">
-        <v>3.850320702201323</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G13">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H13">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I13">
-        <v>55.38756568673229</v>
+        <v>249.2440455902953</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>21.48537009650685</v>
+        <v>96.68416543428079</v>
       </c>
       <c r="C14">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D14">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E14">
-        <v>14.05320408839462</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F14">
-        <v>2.526772960819618</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G14">
-        <v>2.895897928597497</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I14">
-        <v>48.21455579063409</v>
+        <v>216.9655010578533</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>14.11622311463145</v>
+        <v>63.52300401584149</v>
       </c>
       <c r="C15">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D15">
-        <v>2.598453764057668</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E15">
-        <v>7.904927299721972</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F15">
-        <v>1.80483782915687</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G15">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H15">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I15">
-        <v>30.56808190415563</v>
+        <v>137.5563685687003</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>7.321295378096988</v>
+        <v>32.94582920143643</v>
       </c>
       <c r="C16">
-        <v>1.454752363184111</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D16">
-        <v>3.464605018743558</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E16">
-        <v>3.513301022098655</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F16">
-        <v>2.165805394988244</v>
+        <v>9.746124277447095</v>
       </c>
       <c r="G16">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I16">
-        <v>20.33300745094281</v>
+        <v>91.49853352924259</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>5.024418396733228</v>
+        <v>22.60988278529953</v>
       </c>
       <c r="C17">
-        <v>0.6612510741745961</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D17">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F17">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G17">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I17">
-        <v>10.04797169691908</v>
+        <v>45.21587263613588</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>4.067386321164994</v>
+        <v>18.30323844524247</v>
       </c>
       <c r="C18">
-        <v>1.322502148349192</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D18">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E18">
-        <v>0.4391626277623319</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F18">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G18">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H18">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I18">
-        <v>11.40800539680729</v>
+        <v>51.33602428563282</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>2.249025377585348</v>
+        <v>10.12061419913407</v>
       </c>
       <c r="C19">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D19">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="F19">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G19">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I19">
-        <v>9.32081890009492</v>
+        <v>41.94368505042714</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>2.201173773806938</v>
+        <v>9.905281982131218</v>
       </c>
       <c r="C20">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D20">
-        <v>1.299226882028834</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="E20">
-        <v>1.756650511049328</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F20">
-        <v>0.9625801755503307</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G20">
-        <v>0.9652993095324991</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I20">
-        <v>7.581681296472687</v>
+        <v>34.11756583412709</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>5.742192453409404</v>
+        <v>25.8398660403423</v>
       </c>
       <c r="C21">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D21">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E21">
-        <v>0.8783252555246638</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F21">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G21">
-        <v>0.9652993095324991</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I21">
-        <v>11.01456252794255</v>
+        <v>49.56553137574147</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>16.55665490733044</v>
+        <v>74.50494708298699</v>
       </c>
       <c r="C22">
-        <v>1.058001718679354</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D22">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E22">
-        <v>3.952463649860986</v>
+        <v>17.78608642437444</v>
       </c>
       <c r="F22">
-        <v>5.053545921639236</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G22">
-        <v>7.722394476259993</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="I22">
-        <v>40.83919508391418</v>
+        <v>183.7763778776138</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>26.2226788705696</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C23">
-        <v>1.851503007688869</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D23">
-        <v>6.929210037487116</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E23">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F23">
-        <v>9.02418914578435</v>
+        <v>40.60885115602957</v>
       </c>
       <c r="G23">
-        <v>15.92743860728624</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H23">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I23">
-        <v>76.50616890991904</v>
+        <v>344.2777600946357</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>34.54885792801322</v>
+        <v>155.4698606760595</v>
       </c>
       <c r="C24">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D24">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E24">
-        <v>16.68817985496861</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F24">
-        <v>9.866446799390889</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G24">
-        <v>9.652993095324994</v>
+        <v>43.43846892896246</v>
       </c>
       <c r="H24">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I24">
-        <v>83.24580320255411</v>
+        <v>374.6061144114935</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>34.93167075824053</v>
+        <v>157.1925184120823</v>
       </c>
       <c r="C25">
-        <v>1.322502148349192</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D25">
-        <v>8.661512546858892</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E25">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F25">
-        <v>7.459996360515063</v>
+        <v>33.56998362231778</v>
       </c>
       <c r="G25">
-        <v>14.47948964298749</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H25">
-        <v>1.416548723305506</v>
+        <v>6.374469254874777</v>
       </c>
       <c r="I25">
-        <v>79.68994850207731</v>
+        <v>358.6047682593478</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>30.81643283329713</v>
+        <v>138.6739477498371</v>
       </c>
       <c r="C26">
-        <v>2.777254511533304</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D26">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E26">
-        <v>12.2965535773453</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F26">
-        <v>13.23547741381705</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G26">
-        <v>19.30598619064999</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H26">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I26">
-        <v>94.49461001875729</v>
+        <v>425.2257450844078</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>26.60549170079687</v>
+        <v>119.724712653586</v>
       </c>
       <c r="C27">
-        <v>2.777254511533304</v>
+        <v>12.49764530189987</v>
       </c>
       <c r="D27">
-        <v>11.25996631091656</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E27">
-        <v>7.465764671959643</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F27">
-        <v>15.52160533074909</v>
+        <v>69.84722398837087</v>
       </c>
       <c r="G27">
-        <v>13.51419033345499</v>
+        <v>60.81385650054747</v>
       </c>
       <c r="H27">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I27">
-        <v>77.38036431329472</v>
+        <v>348.2116394098263</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>30.19436198417776</v>
+        <v>135.8746289288</v>
       </c>
       <c r="C28">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D28">
-        <v>11.25996631091656</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E28">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F28">
-        <v>12.03225219437913</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G28">
-        <v>19.30598619064999</v>
+        <v>86.87693785792493</v>
       </c>
       <c r="H28">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I28">
-        <v>87.20074625663824</v>
+        <v>392.4033581548721</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>27.51467217258672</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C29">
-        <v>3.30625537087298</v>
+        <v>14.87814916892841</v>
       </c>
       <c r="D29">
-        <v>12.12611756560245</v>
+        <v>54.56752904521103</v>
       </c>
       <c r="E29">
-        <v>7.465764671959643</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F29">
-        <v>9.866446799390889</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G29">
-        <v>8.205044131026243</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H29">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I29">
-        <v>69.19257507309167</v>
+        <v>311.3665878289125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>27.80178179525718</v>
+        <v>125.1080180786574</v>
       </c>
       <c r="C30">
-        <v>1.983753222523788</v>
+        <v>8.926889501357048</v>
       </c>
       <c r="D30">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E30">
-        <v>6.587439416434979</v>
+        <v>29.64347737395741</v>
       </c>
       <c r="F30">
-        <v>12.03225219437913</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G30">
-        <v>15.92743860728624</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H30">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I30">
-        <v>76.10392173499194</v>
+        <v>342.4676478074637</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>27.897485002814</v>
+        <v>125.5386825126631</v>
       </c>
       <c r="C31">
-        <v>2.645004296698384</v>
+        <v>11.90251933514273</v>
       </c>
       <c r="D31">
-        <v>13.85842007497423</v>
+        <v>62.36289033738404</v>
       </c>
       <c r="E31">
-        <v>7.02660204419731</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F31">
-        <v>14.07773506742359</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G31">
-        <v>10.13564275009124</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="H31">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I31">
-        <v>76.11307214396724</v>
+        <v>342.5088246478527</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>29.18947830483114</v>
+        <v>131.35265237174</v>
       </c>
       <c r="C32">
-        <v>3.041754941203142</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D32">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E32">
-        <v>9.222415183008971</v>
+        <v>41.50086832354036</v>
       </c>
       <c r="F32">
-        <v>14.07773506742359</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G32">
-        <v>11.10094205962374</v>
+        <v>49.95423926830686</v>
       </c>
       <c r="H32">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I32">
-        <v>78.16749060131697</v>
+        <v>351.7537077059262</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>33.25686462599614</v>
+        <v>149.6558908169826</v>
       </c>
       <c r="C33">
-        <v>2.116003437358707</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D33">
-        <v>17.32302509371778</v>
+        <v>77.95361292173006</v>
       </c>
       <c r="E33">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F33">
-        <v>13.11515489187325</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G33">
-        <v>10.61829240485749</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="H33">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I33">
-        <v>87.6775178817521</v>
+        <v>394.5488304678844</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>40.48245679653627</v>
+        <v>182.1710555844133</v>
       </c>
       <c r="C34">
-        <v>3.17400515603806</v>
+        <v>14.28302320217128</v>
       </c>
       <c r="D34">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E34">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F34">
-        <v>11.43063958466018</v>
+        <v>51.4378781309708</v>
       </c>
       <c r="G34">
-        <v>7.722394476259993</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H34">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I34">
-        <v>83.53405596172368</v>
+        <v>375.9032518277566</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>39.52542472096804</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C35">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D35">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E35">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F35">
-        <v>6.016126097189567</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G35">
-        <v>4.826496547662497</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H35">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I35">
-        <v>74.87725203751317</v>
+        <v>336.9476341688093</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>34.83596755068372</v>
+        <v>156.7618539780766</v>
       </c>
       <c r="C36">
-        <v>1.58700257801903</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D36">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E36">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F36">
-        <v>4.331610789976488</v>
+        <v>19.49224855489419</v>
       </c>
       <c r="G36">
-        <v>8.205044131026243</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H36">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I36">
-        <v>73.03093684867154</v>
+        <v>328.6392158190218</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>27.37111736125149</v>
+        <v>123.1700281256317</v>
       </c>
       <c r="C37">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D37">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E37">
-        <v>12.2965535773453</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F37">
-        <v>3.850320702201323</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G37">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H37">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I37">
-        <v>55.38756568673229</v>
+        <v>249.2440455902953</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>21.48537009650685</v>
+        <v>96.68416543428079</v>
       </c>
       <c r="C38">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D38">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E38">
-        <v>14.05320408839462</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F38">
-        <v>2.526772960819618</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G38">
-        <v>2.895897928597497</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I38">
-        <v>48.21455579063409</v>
+        <v>216.9655010578533</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>14.11622311463145</v>
+        <v>63.52300401584149</v>
       </c>
       <c r="C39">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D39">
-        <v>2.598453764057668</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E39">
-        <v>7.904927299721972</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F39">
-        <v>1.80483782915687</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G39">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H39">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I39">
-        <v>30.56808190415563</v>
+        <v>137.5563685687003</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>7.321295378096988</v>
+        <v>32.94582920143643</v>
       </c>
       <c r="C40">
-        <v>1.454752363184111</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D40">
-        <v>3.464605018743558</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E40">
-        <v>3.513301022098655</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F40">
-        <v>2.165805394988244</v>
+        <v>9.746124277447095</v>
       </c>
       <c r="G40">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I40">
-        <v>20.33300745094281</v>
+        <v>91.49853352924259</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>5.024418396733228</v>
+        <v>22.60988278529953</v>
       </c>
       <c r="C41">
-        <v>0.6612510741745961</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D41">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F41">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G41">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I41">
-        <v>10.04797169691908</v>
+        <v>45.21587263613588</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>4.067386321164994</v>
+        <v>18.30323844524247</v>
       </c>
       <c r="C42">
-        <v>1.322502148349192</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D42">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E42">
-        <v>0.4391626277623319</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F42">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G42">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H42">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I42">
-        <v>11.40800539680729</v>
+        <v>51.33602428563282</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>2.249025377585348</v>
+        <v>10.12061419913407</v>
       </c>
       <c r="C43">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D43">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="F43">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G43">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I43">
-        <v>9.32081890009492</v>
+        <v>41.94368505042714</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.201173773806938</v>
+        <v>9.905281982131218</v>
       </c>
       <c r="C44">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D44">
-        <v>1.299226882028834</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="E44">
-        <v>1.756650511049328</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F44">
-        <v>0.9625801755503307</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G44">
-        <v>0.9652993095324991</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I44">
-        <v>7.581681296472687</v>
+        <v>34.11756583412709</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>5.742192453409404</v>
+        <v>25.8398660403423</v>
       </c>
       <c r="C45">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D45">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E45">
-        <v>0.8783252555246638</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F45">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G45">
-        <v>0.9652993095324991</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I45">
-        <v>11.01456252794255</v>
+        <v>49.56553137574147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>16.55665490733044</v>
+        <v>74.50494708298699</v>
       </c>
       <c r="C46">
-        <v>1.058001718679354</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D46">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E46">
-        <v>3.952463649860986</v>
+        <v>17.78608642437444</v>
       </c>
       <c r="F46">
-        <v>5.053545921639236</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G46">
-        <v>7.722394476259993</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="I46">
-        <v>40.83919508391418</v>
+        <v>183.7763778776138</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>26.2226788705696</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C47">
-        <v>1.851503007688869</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D47">
-        <v>6.929210037487116</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E47">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F47">
-        <v>9.02418914578435</v>
+        <v>40.60885115602957</v>
       </c>
       <c r="G47">
-        <v>15.92743860728624</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H47">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I47">
-        <v>76.50616890991904</v>
+        <v>344.2777600946357</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>34.54885792801322</v>
+        <v>155.4698606760595</v>
       </c>
       <c r="C48">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D48">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E48">
-        <v>16.68817985496861</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F48">
-        <v>9.866446799390889</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G48">
-        <v>9.652993095324994</v>
+        <v>43.43846892896246</v>
       </c>
       <c r="H48">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I48">
-        <v>83.24580320255411</v>
+        <v>374.6061144114935</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>34.93167075824053</v>
+        <v>157.1925184120823</v>
       </c>
       <c r="C49">
-        <v>1.322502148349192</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D49">
-        <v>8.661512546858892</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E49">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F49">
-        <v>7.459996360515063</v>
+        <v>33.56998362231778</v>
       </c>
       <c r="G49">
-        <v>14.47948964298749</v>
+        <v>65.15770339344371</v>
       </c>
       <c r="H49">
-        <v>1.416548723305506</v>
+        <v>6.374469254874777</v>
       </c>
       <c r="I49">
-        <v>79.68994850207731</v>
+        <v>358.6047682593478</v>
       </c>
     </row>
   </sheetData>
